--- a/Booking System/Create New Order/Default.xlsx
+++ b/Booking System/Create New Order/Default.xlsx
@@ -19,7 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Agentname</t>
+  </si>
+  <si>
+    <t>FlyTo</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
   <si>
     <t>Order_Confirmation</t>
   </si>
@@ -27,7 +39,16 @@
     <t>Order_No</t>
   </si>
   <si>
-    <t>Order 102 completed</t>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>FlyFrom</t>
   </si>
 </sst>
 </file>
@@ -172,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -180,43 +201,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -515,38 +506,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="18.359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
         <v>0</v>
       </c>
       <c t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>2</v>
-      </c>
-      <c s="3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(A2,"Order ", "")," completed", "")</f>
-        <v>102</v>
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Booking System/Create New Order/Default.xlsx
+++ b/Booking System/Create New Order/Default.xlsx
@@ -12,7 +12,7 @@
     <sheet name="FR - Select Flight" sheetId="3" r:id="rId3"/>
     <sheet name="FR - Enter Passenger Details" sheetId="4" r:id="rId4"/>
     <sheet name="FR - Close App" sheetId="5" r:id="rId5"/>
-    <sheet name="FR - Enter Flight Details" sheetId="6" r:id="rId6"/>
+    <sheet name="FR - Find a Flight" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -509,7 +509,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.1"/>

--- a/Booking System/Create New Order/Default.xlsx
+++ b/Booking System/Create New Order/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="FR - Select Flight" sheetId="3" r:id="rId3"/>
     <sheet name="FR - Enter Passenger Details" sheetId="4" r:id="rId4"/>
     <sheet name="FR - Close App" sheetId="5" r:id="rId5"/>
-    <sheet name="FR - Find a Flight" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -618,25 +617,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
